--- a/Tools/Quick_Cal.xlsx
+++ b/Tools/Quick_Cal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edwardlee/GitHub/POW201/Tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D0DC2D-92B3-B74F-ABC4-ECF4592BDC47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7AD50E-CB38-6D44-8944-3FE8DD6D420F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-29300" yWindow="4380" windowWidth="28260" windowHeight="17320" xr2:uid="{13D7EDF9-8B91-174A-99ED-5183830B5559}"/>
   </bookViews>
@@ -468,7 +468,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="257" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -506,7 +506,7 @@
         <v>14</v>
       </c>
       <c r="D3">
-        <v>67.641000000000005</v>
+        <v>68</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -538,7 +538,7 @@
       </c>
       <c r="D5" s="1">
         <f>1/2/PI()/(B2*D3*10^-9)</f>
-        <v>15686.239912863037</v>
+        <v>15603.425793323073</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>

--- a/Tools/Quick_Cal.xlsx
+++ b/Tools/Quick_Cal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edwardlee/GitHub/POW201/Tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7AD50E-CB38-6D44-8944-3FE8DD6D420F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C91A5AA-A680-0E4A-9551-433C66F11EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29300" yWindow="4380" windowWidth="28260" windowHeight="17320" xr2:uid="{13D7EDF9-8B91-174A-99ED-5183830B5559}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19760" xr2:uid="{13D7EDF9-8B91-174A-99ED-5183830B5559}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>FR</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,6 +95,42 @@
   </si>
   <si>
     <t>mΩ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ohm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rdown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ohm'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KFB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Input Signal Gain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Input Signal Gain*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KFB^2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>by auto cal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -465,15 +501,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{663E44C9-54B8-7040-BAE9-55987822F09D}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="257" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="7" max="7" width="16.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -483,8 +522,17 @@
       <c r="C1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1">
+        <v>824.56100000000004</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -494,8 +542,17 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2">
+        <v>1000</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -511,8 +568,15 @@
       <c r="E3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3">
+        <f>1*H1/(H1+H2)</f>
+        <v>0.45192295571373059</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -525,7 +589,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -543,8 +607,29 @@
       <c r="E5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5">
+        <v>0.54807692413091702</v>
+      </c>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6">
+        <f>H3^2</f>
+        <v>0.2042343579010345</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -555,7 +640,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -566,7 +651,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -581,5 +666,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>